--- a/SiteAssets/TITAN Configuration Template -c8dd553c-b0e4-480c-93a7-e65ae2a9891d.xlsx
+++ b/SiteAssets/TITAN Configuration Template -c8dd553c-b0e4-480c-93a7-e65ae2a9891d.xlsx
@@ -9261,10 +9261,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA9C04D3BC02534394A1512A2B3659FE" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c628c788014303cf47c7b82900940e6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" xmlns:ns3="e45dbced-aa1a-4b99-b9a7-17c1647603e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9d9537e0961fbe981c5326a6adb0efe" ns2:_="" ns3:_="">
-    <xsd:import namespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5"/>
-    <xsd:import namespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2ED4FA4550114390F4E4DA6A41FD5F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10700437bbd6ac7758156c3ff0ac02b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11650e4e-d99c-4cd5-8ffb-b15150002334" xmlns:ns3="e9d3e7c7-f0c2-437b-a72b-2dd753089032" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12d49b30532650eab3d1b40ef4bc3b9b" ns2:_="" ns3:_="">
+    <xsd:import namespace="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
+    <xsd:import namespace="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9280,9 +9280,13 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:ImageMetadataListItemId" minOccurs="0"/>
+                <xsd:element ref="ns2:ImageMetadataListFieldId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9290,7 +9294,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="11650e4e-d99c-4cd5-8ffb-b15150002334" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="4" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -9303,50 +9307,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="7" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="8" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="9" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:description="" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="ImageMetadataListItemId" ma:index="17" nillable="true" ma:displayName="ImageMetadataListItemId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListItemId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ImageMetadataListFieldId" ma:index="18" nillable="true" ma:displayName="ImageMetadataListFieldId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListFieldId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e9d3e7c7-f0c2-437b-a72b-2dd753089032" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9365,14 +9374,36 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{de4e050f-aa16-41e3-b1eb-200c8aafaec1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e45dbced-aa1a-4b99-b9a7-17c1647603e8">
+    <xsd:element name="_dlc_DocId" ma:index="19" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="20" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="21" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{56595b7f-541d-4524-8ca8-b786ab95179d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -9393,7 +9424,7 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="17" ma:displayName="Content Type"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
         <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
@@ -9486,8 +9517,15 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="e45dbced-aa1a-4b99-b9a7-17c1647603e8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57aa06b8-40a5-4000-b0c0-0a316fdf73b5">
+    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1945</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
+      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1945</Url>
+      <Description>ADMIN-1645029823-1945</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -9554,7 +9592,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847C9D43-17C8-4261-958E-7A0531041149}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C41499-B00B-4449-87D4-BCC6B5557E0C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
